--- a/public/local-solver-package/Result_14/calendar.xlsx
+++ b/public/local-solver-package/Result_14/calendar.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calendar_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Calendar_2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -826,4 +827,401 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="18" customWidth="1" min="1" max="1"/>
+    <col width="22" customWidth="1" min="2" max="2"/>
+    <col width="22" customWidth="1" min="3" max="3"/>
+    <col width="22" customWidth="1" min="4" max="4"/>
+    <col width="22" customWidth="1" min="5" max="5"/>
+    <col width="22" customWidth="1" min="6" max="6"/>
+    <col width="22" customWidth="1" min="7" max="7"/>
+    <col width="22" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Shift</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Mon</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Tue</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wed</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Thu</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Fri</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Sat</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Sun</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" s="2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr"/>
+      <c r="B5" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" s="2" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr"/>
+      <c r="B8" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="H8" s="2" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr"/>
+      <c r="B11" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="G11" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="H11" s="2" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>MD_D</t>
+        </is>
+      </c>
+      <c r="B12" s="4" t="inlineStr"/>
+      <c r="C12" s="4" t="inlineStr"/>
+      <c r="D12" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E12" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F12" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>MD_N</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="4" t="inlineStr"/>
+      <c r="D13" s="4" t="inlineStr"/>
+      <c r="E13" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F13" s="4" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>MD_S1</t>
+        </is>
+      </c>
+      <c r="B14" s="4" t="inlineStr"/>
+      <c r="C14" s="4" t="inlineStr"/>
+      <c r="D14" s="4" t="inlineStr"/>
+      <c r="E14" s="4" t="inlineStr"/>
+      <c r="F14" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>MD_S2</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr"/>
+      <c r="C15" s="4" t="inlineStr"/>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G15" s="5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="H15" s="5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>MD_S3</t>
+        </is>
+      </c>
+      <c r="B16" s="4" t="inlineStr"/>
+      <c r="C16" s="4" t="inlineStr"/>
+      <c r="D16" s="4" t="inlineStr"/>
+      <c r="E16" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F16" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G16" s="5" t="inlineStr"/>
+      <c r="H16" s="5" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr"/>
+      <c r="B18" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G18" s="2" t="inlineStr"/>
+      <c r="H18" s="2" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>MD_D</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C19" s="4" t="inlineStr"/>
+      <c r="D19" s="4" t="inlineStr"/>
+      <c r="E19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr"/>
+      <c r="G19" s="5" t="inlineStr"/>
+      <c r="H19" s="5" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>MD_N</t>
+        </is>
+      </c>
+      <c r="B20" s="4" t="inlineStr"/>
+      <c r="C20" s="4" t="inlineStr"/>
+      <c r="D20" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E20" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F20" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G20" s="5" t="inlineStr"/>
+      <c r="H20" s="5" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="3" t="inlineStr">
+        <is>
+          <t>MD_PEDS</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C21" s="4" t="inlineStr"/>
+      <c r="D21" s="4" t="inlineStr"/>
+      <c r="E21" s="4" t="inlineStr"/>
+      <c r="F21" s="4" t="inlineStr"/>
+      <c r="G21" s="5" t="inlineStr"/>
+      <c r="H21" s="5" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="3" t="inlineStr">
+        <is>
+          <t>MD_S2</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C22" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="D22" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E22" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F22" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G22" s="5" t="inlineStr"/>
+      <c r="H22" s="5" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/public/local-solver-package/Result_14/calendar.xlsx
+++ b/public/local-solver-package/Result_14/calendar.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -593,33 +593,29 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>MD_D</t>
+          <t>Flex_Day</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr"/>
       <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
       <c r="H12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>MD_N</t>
+          <t>Flex_Night</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr"/>
@@ -637,69 +633,49 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>MD_S1</t>
+          <t>MD_Day</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
       <c r="C14" s="4" t="inlineStr"/>
       <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>MD_S2</t>
+          <t>MD_Night</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr"/>
       <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>MD_S3</t>
+          <t>NP_Day</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr"/>
       <c r="C16" s="4" t="inlineStr"/>
       <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
@@ -708,104 +684,100 @@
       <c r="G16" s="5" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>NP_Night</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="5" t="inlineStr"/>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>PA_Day</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>MD_D</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+          <t>PA_Swing</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" s="4" t="inlineStr"/>
       <c r="D19" s="4" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
       <c r="G19" s="5" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>MD_N</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-    </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>MD_PEDS</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>MD_S2</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+          <t>MD_N</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
@@ -823,6 +795,104 @@
       </c>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>MD_S2</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr"/>
+      <c r="H23" s="5" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>NP_Day</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>NP_Night</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="5" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>PA_Day</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>PA_Swing</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -835,7 +905,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -990,33 +1060,29 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>MD_D</t>
+          <t>Flex_Day</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr"/>
       <c r="C12" s="4" t="inlineStr"/>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="D12" s="4" t="inlineStr"/>
+      <c r="E12" s="4" t="inlineStr"/>
       <c r="F12" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
         </is>
       </c>
-      <c r="G12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
       <c r="H12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>MD_N</t>
+          <t>Flex_Night</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr"/>
@@ -1034,69 +1100,49 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>MD_S1</t>
+          <t>MD_Day</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr"/>
       <c r="C14" s="4" t="inlineStr"/>
       <c r="D14" s="4" t="inlineStr"/>
-      <c r="E14" s="4" t="inlineStr"/>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="E14" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F14" s="4" t="inlineStr"/>
       <c r="G14" s="5" t="inlineStr"/>
       <c r="H14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>MD_S2</t>
+          <t>MD_Night</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr"/>
       <c r="C15" s="4" t="inlineStr"/>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="D15" s="4" t="inlineStr"/>
+      <c r="E15" s="4" t="inlineStr"/>
       <c r="F15" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
         </is>
       </c>
-      <c r="G15" s="5" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="H15" s="5" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>MD_S3</t>
+          <t>NP_Day</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr"/>
       <c r="C16" s="4" t="inlineStr"/>
       <c r="D16" s="4" t="inlineStr"/>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+      <c r="E16" s="4" t="inlineStr"/>
       <c r="F16" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
@@ -1105,104 +1151,100 @@
       <c r="G16" s="5" t="inlineStr"/>
       <c r="H16" s="5" t="inlineStr"/>
     </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>NP_Night</t>
+        </is>
+      </c>
+      <c r="B17" s="4" t="inlineStr"/>
+      <c r="C17" s="4" t="inlineStr"/>
+      <c r="D17" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E17" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F17" s="4" t="inlineStr"/>
+      <c r="G17" s="5" t="inlineStr"/>
+      <c r="H17" s="5" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+    </row>
     <row r="18">
-      <c r="A18" t="inlineStr"/>
-      <c r="B18" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="D18" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="E18" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="F18" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="G18" s="2" t="inlineStr"/>
-      <c r="H18" s="2" t="inlineStr"/>
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>PA_Day</t>
+        </is>
+      </c>
+      <c r="B18" s="4" t="inlineStr"/>
+      <c r="C18" s="4" t="inlineStr"/>
+      <c r="D18" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E18" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F18" s="4" t="inlineStr"/>
+      <c r="G18" s="5" t="inlineStr"/>
+      <c r="H18" s="5" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>MD_D</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+          <t>PA_Swing</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr"/>
       <c r="C19" s="4" t="inlineStr"/>
       <c r="D19" s="4" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr"/>
-      <c r="F19" s="4" t="inlineStr"/>
+      <c r="F19" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
       <c r="G19" s="5" t="inlineStr"/>
       <c r="H19" s="5" t="inlineStr"/>
     </row>
-    <row r="20">
-      <c r="A20" s="3" t="inlineStr">
-        <is>
-          <t>MD_N</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr"/>
-      <c r="C20" s="4" t="inlineStr"/>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="G20" s="5" t="inlineStr"/>
-      <c r="H20" s="5" t="inlineStr"/>
-    </row>
     <row r="21">
-      <c r="A21" s="3" t="inlineStr">
-        <is>
-          <t>MD_PEDS</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr"/>
-      <c r="D21" s="4" t="inlineStr"/>
-      <c r="E21" s="4" t="inlineStr"/>
-      <c r="F21" s="4" t="inlineStr"/>
-      <c r="G21" s="5" t="inlineStr"/>
-      <c r="H21" s="5" t="inlineStr"/>
+      <c r="A21" t="inlineStr"/>
+      <c r="B21" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="D21" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="E21" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="F21" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="G21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>MD_S2</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>UNFILLED</t>
-        </is>
-      </c>
+          <t>MD_N</t>
+        </is>
+      </c>
+      <c r="B22" s="4" t="inlineStr"/>
+      <c r="C22" s="4" t="inlineStr"/>
       <c r="D22" s="4" t="inlineStr">
         <is>
           <t>UNFILLED</t>
@@ -1220,6 +1262,104 @@
       </c>
       <c r="G22" s="5" t="inlineStr"/>
       <c r="H22" s="5" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>MD_S2</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="inlineStr"/>
+      <c r="D23" s="4" t="inlineStr"/>
+      <c r="E23" s="4" t="inlineStr"/>
+      <c r="F23" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="G23" s="5" t="inlineStr"/>
+      <c r="H23" s="5" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>NP_Day</t>
+        </is>
+      </c>
+      <c r="B24" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C24" s="4" t="inlineStr"/>
+      <c r="D24" s="4" t="inlineStr"/>
+      <c r="E24" s="4" t="inlineStr"/>
+      <c r="F24" s="4" t="inlineStr"/>
+      <c r="G24" s="5" t="inlineStr"/>
+      <c r="H24" s="5" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>NP_Night</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr"/>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr"/>
+      <c r="E25" s="4" t="inlineStr"/>
+      <c r="F25" s="4" t="inlineStr"/>
+      <c r="G25" s="5" t="inlineStr"/>
+      <c r="H25" s="5" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="3" t="inlineStr">
+        <is>
+          <t>PA_Day</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr"/>
+      <c r="C26" s="4" t="inlineStr"/>
+      <c r="D26" s="4" t="inlineStr"/>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr"/>
+      <c r="G26" s="5" t="inlineStr"/>
+      <c r="H26" s="5" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3" t="inlineStr">
+        <is>
+          <t>PA_Swing</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr"/>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>UNFILLED</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr"/>
+      <c r="F27" s="4" t="inlineStr"/>
+      <c r="G27" s="5" t="inlineStr"/>
+      <c r="H27" s="5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
